--- a/02-11-2021_Mastr_Vergleich.xlsx
+++ b/02-11-2021_Mastr_Vergleich.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Vergleich Mastr: Open_Mastr und Datendownload</t>
   </si>
@@ -83,7 +83,19 @@
     <t>Daten zu Einheiten:</t>
   </si>
   <si>
-    <t>Auffälligkeiten: deutlich weniger Kategorien; 'StatistikFlag' fehlt (wahrscheinlich Flag = B)</t>
+    <t>Auffälligkeiten: deutlich weniger Kategorien; 'StatistikFlag' fehlt bei Dump (wahrscheinlich Flag = B)</t>
+  </si>
+  <si>
+    <t>Nettonennleistung</t>
+  </si>
+  <si>
+    <t>Nettonennleistung StatistikFlag = B</t>
+  </si>
+  <si>
+    <t>sehr großer Unterschied</t>
+  </si>
+  <si>
+    <t>StatisikFlag col fehlt</t>
   </si>
 </sst>
 </file>
@@ -106,13 +118,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -150,15 +168,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -199,113 +208,136 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,74 +619,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -662,44 +694,44 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29" t="s">
+      <c r="I5" s="25"/>
+      <c r="J5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="25" t="s">
+      <c r="K5" s="25"/>
+      <c r="L5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="25" t="s">
+      <c r="M5" s="22"/>
+      <c r="N5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="27" t="s">
+      <c r="O5" s="22"/>
+      <c r="P5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="28"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -738,63 +770,63 @@
       <c r="M6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>119</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>62</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>126</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>22</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>107</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>58</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>122</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>55</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>107</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="26">
         <v>64</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>109</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="7">
         <v>47</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="26">
         <v>90</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>43</v>
       </c>
       <c r="P7" s="1">
@@ -805,165 +837,228 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>1955217</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>2173891</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>32067</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>32758</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>7972</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <v>8397</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <v>19974</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <v>20789</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="10">
         <v>201724</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="27">
         <v>296857</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="10">
         <v>760</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="11">
         <v>458</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="28">
         <v>6</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="11">
         <v>6</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="13">
         <v>68321</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="14">
         <v>74291</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>73098164</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="9">
         <v>61003004</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="8">
         <v>68830846</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="9">
         <v>71620090</v>
       </c>
-      <c r="F9" s="19">
-        <v>6963349153</v>
-      </c>
-      <c r="G9" s="17">
-        <v>6109706939</v>
-      </c>
-      <c r="H9" s="19">
+      <c r="F9" s="18">
+        <v>6963349</v>
+      </c>
+      <c r="G9" s="9">
+        <v>6109706</v>
+      </c>
+      <c r="H9" s="31">
         <v>10261439</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="9">
         <v>9073322</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="18">
         <v>11801182</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="27">
         <v>13092780</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="19">
         <v>574985</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="20">
         <v>477393</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="30">
         <v>8545000</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="20">
         <v>8545000</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="18">
         <v>102073427</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="14">
         <v>100758109</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="21" t="s">
+      <c r="A10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8">
+        <v>59589284</v>
+      </c>
+      <c r="C10" s="9">
+        <v>54537978</v>
+      </c>
+      <c r="D10" s="8">
+        <v>66005579</v>
+      </c>
+      <c r="E10" s="9">
+        <v>71620090</v>
+      </c>
+      <c r="F10" s="8">
+        <v>6482749</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5946810</v>
+      </c>
+      <c r="H10" s="32">
+        <v>446714</v>
+      </c>
+      <c r="I10" s="9">
+        <v>8852941</v>
+      </c>
+      <c r="J10" s="8">
+        <v>7749319</v>
+      </c>
+      <c r="K10" s="27">
+        <v>12461943</v>
+      </c>
+      <c r="L10" s="8">
+        <v>487817</v>
+      </c>
+      <c r="M10" s="9">
+        <v>446714</v>
+      </c>
+      <c r="N10" s="27">
+        <v>8114000</v>
+      </c>
+      <c r="O10" s="9">
+        <v>8114000</v>
+      </c>
+      <c r="P10" s="13">
+        <v>83717513</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>94512169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="38">
+        <v>8265360</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="37">
+        <v>4465445</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="37">
+        <v>21017</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="34"/>
+      <c r="J11" s="37">
+        <v>914021</v>
+      </c>
+      <c r="K11" s="35"/>
+      <c r="L11" s="38">
+        <v>14811</v>
+      </c>
+      <c r="M11" s="34"/>
+      <c r="N11" s="29">
+        <v>0</v>
+      </c>
+      <c r="O11" s="34"/>
+      <c r="P11" s="38">
+        <v>1485169</v>
+      </c>
+      <c r="Q11" s="36"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" t="s">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
